--- a/data/trans_dic/P20-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P20-Dificultad-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.05043478850717553</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.09649600874595649</v>
+        <v>0.09649600874595647</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.09229202506137558</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.03827111958634374</v>
+        <v>0.03718307614824397</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.0707644115409566</v>
+        <v>0.07175847331630994</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.0377749909094167</v>
+        <v>0.03882838504913055</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.07224882127659008</v>
+        <v>0.07228477701260173</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.07222893999816332</v>
+        <v>0.07514257800791437</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.09943313502535558</v>
+        <v>0.09954499717326172</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.06626957462929157</v>
+        <v>0.06653439606453447</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.06130651710627685</v>
+        <v>0.06146382560539376</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.06470893282008632</v>
+        <v>0.06483018880749374</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.08982739374419804</v>
+        <v>0.09147774544250864</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.05590393754568906</v>
+        <v>0.0557520300287557</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.07298078188024247</v>
+        <v>0.07238795386213212</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.07616068106961993</v>
+        <v>0.075345996979435</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1088250837839056</v>
+        <v>0.1074709160625758</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.06529107779035065</v>
+        <v>0.0681294774754849</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.126479212204084</v>
+        <v>0.1269210669569726</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1128014944328813</v>
+        <v>0.1131613971186653</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1385221928815953</v>
+        <v>0.1396504684924502</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.09826061041177415</v>
+        <v>0.09900272253841905</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1019042004823123</v>
+        <v>0.1029982439588789</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.09375429458734259</v>
+        <v>0.09189432313268429</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.117274258266361</v>
+        <v>0.1180492698407714</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.07747302559278953</v>
+        <v>0.07775055292664164</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1048717933726027</v>
+        <v>0.1049252363692471</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.07540032905631192</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.06069743672106655</v>
+        <v>0.06069743672106653</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.0475898883586152</v>
@@ -833,7 +833,7 @@
         <v>0.0619611879749852</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.05722472915839281</v>
+        <v>0.05722472915839279</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.0276177147547974</v>
+        <v>0.02718438955654052</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.03285824085399974</v>
+        <v>0.03318984163296076</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.0346934079115742</v>
+        <v>0.03541215688846643</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.03969666675274917</v>
+        <v>0.0413444540599015</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.04511840888934495</v>
+        <v>0.04530486999000739</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.08284569883359967</v>
+        <v>0.08560314250860006</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.05904172113808798</v>
+        <v>0.06018922852543443</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.04953088170970527</v>
+        <v>0.05052841684760506</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.03937303487386818</v>
+        <v>0.03870861982081356</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.06399702697571541</v>
+        <v>0.06316163331745697</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.05210969423397784</v>
+        <v>0.05175762383250253</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.04794363124715065</v>
+        <v>0.04878537540054693</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.04998068967995907</v>
+        <v>0.0507644992325578</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.06309260291543729</v>
+        <v>0.06234290242208794</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.06471201818495492</v>
+        <v>0.06348048068308622</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.06786058761941852</v>
+        <v>0.06908723499200946</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.07534686504024748</v>
+        <v>0.07351432272034489</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1226601046250922</v>
+        <v>0.1227488186959549</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.09418460551508154</v>
+        <v>0.0938686148420201</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.07361854769262047</v>
+        <v>0.07576854034745688</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.0575099217495283</v>
+        <v>0.0576806151272891</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.08980613853499418</v>
+        <v>0.08833327299836068</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.07321806742229441</v>
+        <v>0.07568750206148359</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.06729231118404302</v>
+        <v>0.0674654320838728</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.08261729647175729</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.05974910900617587</v>
+        <v>0.05974910900617588</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.05453236919016588</v>
@@ -969,7 +969,7 @@
         <v>0.06472467790179179</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.05555654020225025</v>
+        <v>0.05555654020225026</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.02470522091847957</v>
+        <v>0.02455324735958124</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.03380380893096332</v>
+        <v>0.03307030019241199</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.03453978593478239</v>
+        <v>0.0349133644309635</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.03842468594172618</v>
+        <v>0.03818207985521825</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.0628194794974931</v>
+        <v>0.06083736696665209</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.04802294179115928</v>
+        <v>0.04617756712412523</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.06477784687554655</v>
+        <v>0.06586459496393397</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.0467151671215759</v>
+        <v>0.04746352243193819</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.0452223424100781</v>
+        <v>0.04501498826801208</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.04391417697872213</v>
+        <v>0.04507069265103959</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.05412482950412935</v>
+        <v>0.0529596016275232</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.04644038671759996</v>
+        <v>0.04578682043757534</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.04731557756823173</v>
+        <v>0.04664177519331193</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.06296475282263897</v>
+        <v>0.0627726589493222</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.06564571535204607</v>
+        <v>0.06557820782854751</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.06856222266746223</v>
+        <v>0.07008584079786324</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.0960493609181587</v>
+        <v>0.09250177316479755</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.08122028327986923</v>
+        <v>0.08033902955495291</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1038820411616415</v>
+        <v>0.1058571085104813</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.07489364001447839</v>
+        <v>0.0750692258961322</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.06415952651016357</v>
+        <v>0.06556693396522086</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.06581600485443816</v>
+        <v>0.06627541860563327</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.07974999555241576</v>
+        <v>0.07637774178236684</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.06684185580822126</v>
+        <v>0.06718732699539894</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.04163564644468709</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.0514640766821757</v>
+        <v>0.05146407668217571</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.05999821269898065</v>
@@ -1093,7 +1093,7 @@
         <v>0.06293932778813463</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.0667727236355696</v>
+        <v>0.06677272363556958</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.0531899565301689</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.02967989611972208</v>
+        <v>0.03104662214903105</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.04533385144001282</v>
+        <v>0.04432888102639999</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.02656065122967654</v>
+        <v>0.02593621808312371</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.03907844377118457</v>
+        <v>0.03900084213387837</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.03773707296034667</v>
+        <v>0.03729810552663441</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.06078205335672654</v>
+        <v>0.06129837127892265</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.04204678512235131</v>
+        <v>0.04230771063917423</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.05097050467629374</v>
+        <v>0.05095761143955618</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.03907270897270586</v>
+        <v>0.03789708834023967</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.05852051862022561</v>
+        <v>0.05747250455282377</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.03905610624497177</v>
+        <v>0.03835788613689696</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.0490760535775048</v>
+        <v>0.04879095690461189</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.07317973300227279</v>
+        <v>0.07239912080910417</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.09447823898721351</v>
+        <v>0.0900014552803827</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.06405249404326212</v>
+        <v>0.06161602477740515</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.06760096300195551</v>
+        <v>0.06811233584304961</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.08994370159227237</v>
+        <v>0.09051743187643464</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1182636818202505</v>
+        <v>0.1180878236483821</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.09082471195477042</v>
+        <v>0.09076754142639494</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.08397132475054431</v>
+        <v>0.08474152785077173</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.07194304478485186</v>
+        <v>0.0705686090127394</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.0978375401382701</v>
+        <v>0.09607166716463179</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.06897848498196461</v>
+        <v>0.07084392262377238</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.07129881198354625</v>
+        <v>0.07035018846556383</v>
       </c>
     </row>
     <row r="16">
@@ -1229,7 +1229,7 @@
         <v>0.0772018440881279</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.06512533917548789</v>
+        <v>0.06512533917548791</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.05735433284609674</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.03464379480352909</v>
+        <v>0.0345548365046041</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.05332327353126624</v>
+        <v>0.05361570354125611</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.04038053896365193</v>
+        <v>0.04054836615002795</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.05079692639742377</v>
+        <v>0.05094302391362236</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.0641392366343338</v>
+        <v>0.06478678059820872</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.08568846919513658</v>
+        <v>0.08590734076152962</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.06914950791316692</v>
+        <v>0.06751802655184652</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.05797318347081338</v>
+        <v>0.05853299697214181</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.05210388300684352</v>
+        <v>0.05192488842560219</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.0719336876897745</v>
+        <v>0.07253496320228131</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.05663083080951564</v>
+        <v>0.05699887998164437</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.05647395612652663</v>
+        <v>0.0565149514169303</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.04846966113879389</v>
+        <v>0.04852450702852034</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.07111972951582714</v>
+        <v>0.06997672771505868</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.05585487146446401</v>
+        <v>0.05566272866348903</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.06735746125380151</v>
+        <v>0.06688635311679235</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.08291538697495308</v>
+        <v>0.08344761172132893</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1066350885783239</v>
+        <v>0.1064778640110745</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.08692170891788489</v>
+        <v>0.08680277171221618</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.07347331305851335</v>
+        <v>0.07259135971810396</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.06371812828952832</v>
+        <v>0.06364812189261888</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.08531345375104428</v>
+        <v>0.08558509256329146</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.06884755270120101</v>
+        <v>0.06931093541923318</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.06717731339080477</v>
+        <v>0.0672527871286064</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>22320</v>
+        <v>21685</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>73873</v>
+        <v>74911</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>42610</v>
+        <v>43798</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>36033</v>
+        <v>36051</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>66619</v>
+        <v>69306</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>111358</v>
+        <v>111483</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>83471</v>
+        <v>83804</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>38230</v>
+        <v>38328</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>97421</v>
+        <v>97604</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>194374</v>
+        <v>197945</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>133474</v>
+        <v>133111</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>81908</v>
+        <v>81242</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>44417</v>
+        <v>43942</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>113606</v>
+        <v>112193</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>73648</v>
+        <v>76850</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>63080</v>
+        <v>63300</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>104041</v>
+        <v>104372</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>155135</v>
+        <v>156398</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>123765</v>
+        <v>124700</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>63545</v>
+        <v>64228</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>141150</v>
+        <v>138350</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>253765</v>
+        <v>255442</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>184971</v>
+        <v>185634</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>117700</v>
+        <v>117760</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>29769</v>
+        <v>29302</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>32038</v>
+        <v>32361</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>31530</v>
+        <v>32183</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>38114</v>
+        <v>39696</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>47714</v>
+        <v>47912</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>90655</v>
+        <v>93672</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>59424</v>
+        <v>60579</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>55269</v>
+        <v>56382</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>84078</v>
+        <v>82660</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>132428</v>
+        <v>130700</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>99806</v>
+        <v>99131</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>99530</v>
+        <v>101278</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>53874</v>
+        <v>54719</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>61517</v>
+        <v>60786</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>58812</v>
+        <v>57693</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>65155</v>
+        <v>66333</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>79682</v>
+        <v>77744</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>134222</v>
+        <v>134319</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>94794</v>
+        <v>94476</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>82147</v>
+        <v>84546</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>122809</v>
+        <v>123173</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>185835</v>
+        <v>182787</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>140235</v>
+        <v>144964</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>139698</v>
+        <v>140057</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>27709</v>
+        <v>27539</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>29920</v>
+        <v>29271</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>28452</v>
+        <v>28760</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>40211</v>
+        <v>39957</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>62439</v>
+        <v>60469</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>42058</v>
+        <v>40442</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>49948</v>
+        <v>50785</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>48941</v>
+        <v>49725</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>95669</v>
+        <v>95231</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>77329</v>
+        <v>79365</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>86319</v>
+        <v>84461</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>97252</v>
+        <v>95883</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>53069</v>
+        <v>52313</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>55731</v>
+        <v>55561</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>54076</v>
+        <v>54021</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>71749</v>
+        <v>73343</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>95467</v>
+        <v>91941</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>71132</v>
+        <v>70361</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>80099</v>
+        <v>81622</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>78462</v>
+        <v>78646</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>135732</v>
+        <v>138709</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>115896</v>
+        <v>116705</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>127187</v>
+        <v>121809</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>139975</v>
+        <v>140698</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>13273</v>
+        <v>13884</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>22804</v>
+        <v>22298</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>13458</v>
+        <v>13142</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>38138</v>
+        <v>38062</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>12874</v>
+        <v>12725</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>27518</v>
+        <v>27752</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>20590</v>
+        <v>20718</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>46314</v>
+        <v>46302</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>30803</v>
+        <v>29876</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>55931</v>
+        <v>54930</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>38915</v>
+        <v>38220</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>92487</v>
+        <v>91950</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>32726</v>
+        <v>32377</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>47525</v>
+        <v>45273</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>32455</v>
+        <v>31221</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>65974</v>
+        <v>66473</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>30685</v>
+        <v>30881</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>53542</v>
+        <v>53463</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>44477</v>
+        <v>44449</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>76300</v>
+        <v>77000</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>56717</v>
+        <v>55633</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>93509</v>
+        <v>91821</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>68730</v>
+        <v>70589</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>134368</v>
+        <v>132580</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>111895</v>
+        <v>111608</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>181678</v>
+        <v>182674</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>135973</v>
+        <v>136538</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>176839</v>
+        <v>177347</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>212620</v>
+        <v>214766</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>303570</v>
+        <v>304346</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>243876</v>
+        <v>238122</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>214252</v>
+        <v>216321</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>341012</v>
+        <v>339841</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>499926</v>
+        <v>504105</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>390417</v>
+        <v>392955</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>405313</v>
+        <v>405608</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>156551</v>
+        <v>156729</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>242312</v>
+        <v>238418</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>188079</v>
+        <v>187432</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>234490</v>
+        <v>232850</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>274862</v>
+        <v>276626</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>377778</v>
+        <v>377221</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>306555</v>
+        <v>306135</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>271536</v>
+        <v>268277</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>417026</v>
+        <v>416568</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>592913</v>
+        <v>594801</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>474640</v>
+        <v>477835</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>482131</v>
+        <v>482673</v>
       </c>
     </row>
     <row r="24">
